--- a/_site/Data/ChildcarePolicy.xlsx
+++ b/_site/Data/ChildcarePolicy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC1AAFA-15D6-BD4E-AC7E-82A76CC35F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8410271B-0A58-9144-BD6D-67D9C042E0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="3480" windowWidth="27240" windowHeight="15420" xr2:uid="{FF3255CD-A3E7-FB48-8276-17592E6151B3}"/>
+    <workbookView xWindow="1560" yWindow="1480" windowWidth="27240" windowHeight="15420" xr2:uid="{FF3255CD-A3E7-FB48-8276-17592E6151B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
